--- a/Program/ExcelDnaSample.xlsx
+++ b/Program/ExcelDnaSample.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisu\RiderProjects\ExcelDnaTest\Program\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB581F5-8206-4BBF-A1BD-1B009B1AD963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A6C0AD-5273-4B35-94C4-E46CB44213E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{2CD18095-409A-46FA-AD7F-94F961BF8A42}"/>
+    <workbookView xWindow="885" yWindow="1515" windowWidth="21600" windowHeight="12645" xr2:uid="{2CD18095-409A-46FA-AD7F-94F961BF8A42}"/>
   </bookViews>
   <sheets>
     <sheet name="→8Queen" sheetId="6" r:id="rId1"/>
@@ -1907,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E436FD0E-48CE-46E9-AA94-986888F80928}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1915,6 +1910,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1922,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5FB63F-E6A3-4EC8-9B05-061A4AC58905}">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2090,6 +2086,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2103,6 +2100,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2252,6 +2250,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32641,6 +32640,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32656,6 +32656,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32663,11 +32664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605B42E0-3D54-47D8-B1B7-152E92CCEC5D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>